--- a/data_x.xlsx
+++ b/data_x.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\jp_data\hafni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\apps_hafni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1D7A82-11E0-4022-B25F-E7C58FB24CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD2293B-9BC6-4BD7-9C88-EAA62FF18DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{77D3805C-AC75-4801-863E-9823C089DB5C}"/>
   </bookViews>
@@ -39,12 +39,6 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Usia (bulan)</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin</t>
-  </si>
-  <si>
     <t>Agus Nugroho</t>
   </si>
   <si>
@@ -172,6 +166,12 @@
   </si>
   <si>
     <t>status_stunting</t>
+  </si>
+  <si>
+    <t>usia</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,42 +631,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="6">
         <v>2200000</v>
@@ -675,30 +675,30 @@
         <v>66</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="6">
         <v>2000000</v>
@@ -707,30 +707,30 @@
         <v>65</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6">
         <v>1700000</v>
@@ -739,30 +739,30 @@
         <v>67</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4">
         <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6">
         <v>2000000</v>
@@ -771,30 +771,30 @@
         <v>76</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
         <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6">
         <v>1900000</v>
@@ -803,30 +803,30 @@
         <v>71</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6">
         <v>2300000</v>
@@ -835,30 +835,30 @@
         <v>64</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4">
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6">
         <v>2400000</v>
@@ -867,30 +867,30 @@
         <v>63</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4">
         <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6">
         <v>2100000</v>
@@ -899,30 +899,30 @@
         <v>69</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6">
         <v>1800000</v>
@@ -931,30 +931,30 @@
         <v>72</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4">
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6">
         <v>1400000</v>
@@ -963,30 +963,30 @@
         <v>74</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="6">
         <v>1500000</v>
@@ -998,27 +998,27 @@
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6">
         <v>1600000</v>
@@ -1027,30 +1027,30 @@
         <v>73</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4">
         <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="6">
         <v>2500000</v>
@@ -1059,30 +1059,30 @@
         <v>68</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4">
         <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6">
         <v>1200000</v>
@@ -1094,27 +1094,27 @@
         <v>10</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4">
         <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6">
         <v>1750000</v>
@@ -1123,19 +1123,19 @@
         <v>77</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
